--- a/Fase 2/Sprints/Sprint 4/Burndown Chart Sprint 4.xlsx
+++ b/Fase 2/Sprints/Sprint 4/Burndown Chart Sprint 4.xlsx
@@ -223,11 +223,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1113050273"/>
-        <c:axId val="1276771484"/>
+        <c:axId val="926358948"/>
+        <c:axId val="1943981226"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1113050273"/>
+        <c:axId val="926358948"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -279,10 +279,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1276771484"/>
+        <c:crossAx val="1943981226"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1276771484"/>
+        <c:axId val="1943981226"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -357,7 +357,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113050273"/>
+        <c:crossAx val="926358948"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
